--- a/The-SP500-data-downloader-main/Code/Data/YearReturn.xlsx
+++ b/The-SP500-data-downloader-main/Code/Data/YearReturn.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B68"/>
+  <dimension ref="A1:B69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-14.31325638003443</v>
+        <v>-13.4415562379258</v>
       </c>
     </row>
     <row r="3">
@@ -1113,6 +1113,16 @@
       </c>
       <c r="B68" t="n">
         <v>24.2305007976299</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>23.30900234342402</v>
       </c>
     </row>
   </sheetData>
